--- a/jupyter/data/胡奕涵肾母.xlsx
+++ b/jupyter/data/胡奕涵肾母.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18285" activeTab="1"/>
+    <workbookView windowWidth="27645" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="化疗计划" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>化疗计划-胡奕涵-肾母2期-胚芽型-无1p,16q,1q突变-ki67:40%</t>
   </si>
@@ -25,7 +25,7 @@
     <t>周数</t>
   </si>
   <si>
-    <t>EE4A计划</t>
+    <t>EE4A计划(当前方案)</t>
   </si>
   <si>
     <t>A V</t>
@@ -37,24 +37,21 @@
     <t>A V*</t>
   </si>
   <si>
+    <t>DD4A计划</t>
+  </si>
+  <si>
+    <t>D+ V</t>
+  </si>
+  <si>
+    <t>D V*</t>
+  </si>
+  <si>
+    <t>D* V*</t>
+  </si>
+  <si>
     <t>化疗日期</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>4.22</t>
-  </si>
-  <si>
-    <t>4.29</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
     <t>医院</t>
   </si>
   <si>
@@ -88,10 +85,10 @@
     <t>长春地辛1.1mg</t>
   </si>
   <si>
+    <t>0.5mg</t>
+  </si>
+  <si>
     <t>放线菌素(D)</t>
-  </si>
-  <si>
-    <t>0.5mg</t>
   </si>
   <si>
     <t>腹部超声</t>
@@ -149,7 +146,7 @@
     <t>3.26左肾切除手术</t>
   </si>
   <si>
-    <t>术后在缓慢升高?</t>
+    <t>乳酸脱氢酶术后在缓慢升高?</t>
   </si>
   <si>
     <t>项目</t>
@@ -257,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -279,10 +276,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,11 +298,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,54 +391,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,9 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,22 +419,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -432,61 +429,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,121 +591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,32 +641,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,6 +658,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,16 +713,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,152 +740,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,34 +901,43 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1258,550 +1264,728 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06222222222222" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.3288888888889" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.3288888888889" style="7" customWidth="1"/>
     <col min="2" max="20" width="10.5955555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:21">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="13"/>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="20" customHeight="1" spans="1:20">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="17"/>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="20" customHeight="1" spans="1:26">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>5</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <v>6</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
         <v>7</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <v>8</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <v>9</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="9">
         <v>10</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="9">
         <v>11</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="9">
         <v>12</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="9">
         <v>13</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="9">
         <v>14</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="9">
         <v>15</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="9">
         <v>16</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="9">
         <v>17</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="9">
         <v>18</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A3" s="7" t="s">
+      <c r="U2" s="9">
+        <v>20</v>
+      </c>
+      <c r="V2" s="9">
+        <v>21</v>
+      </c>
+      <c r="W2" s="9">
+        <v>22</v>
+      </c>
+      <c r="X2" s="9">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8" t="s">
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A4" s="7" t="s">
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="B5" s="12">
+        <v>45755</v>
+      </c>
+      <c r="C5" s="12">
+        <v>45762</v>
+      </c>
+      <c r="D5" s="12">
+        <v>45769</v>
+      </c>
+      <c r="E5" s="12">
+        <v>45776</v>
+      </c>
+      <c r="F5" s="12">
+        <v>45783</v>
+      </c>
+      <c r="G5" s="12">
+        <v>45790</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A6" s="7" t="s">
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F7" s="13">
+        <v>10.6</v>
+      </c>
+      <c r="G7" s="11">
+        <v>10.6</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9">
-        <v>10.8</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A8" s="7" t="s">
+      <c r="G8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A12" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A13" s="7" t="s">
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A14" s="7" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="12" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A15" s="7" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A16" s="7" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="40.05" customHeight="1" spans="1:26">
+      <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" ht="40.05" customHeight="1" spans="1:20">
-      <c r="A17" s="7" t="s">
+      <c r="B18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" ht="70" customHeight="1" spans="1:3">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" ht="70" customHeight="1" spans="1:3">
-      <c r="A18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0" bottom="0" header="0.196850393700787" footer="0.196850393700787"/>
@@ -1816,7 +2000,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82666666666667" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1828,19 +2012,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1851,10 +2035,10 @@
         <v>348</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1865,7 +2049,7 @@
         <v>29.75</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1876,10 +2060,10 @@
         <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1890,7 +2074,7 @@
         <v>330</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1901,7 +2085,7 @@
         <v>347</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1915,7 +2099,7 @@
         <v>18.9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1942,22 +2126,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1965,10 +2149,10 @@
         <v>45740</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -1977,7 +2161,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1985,10 +2169,10 @@
         <v>45741</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>0.02</v>
@@ -1998,7 +2182,7 @@
         <v>17.02</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2006,10 +2190,10 @@
         <v>45742</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>0.02</v>
@@ -2019,7 +2203,7 @@
         <v>17.04</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2027,10 +2211,10 @@
         <v>45750</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -2040,7 +2224,7 @@
         <v>32.04</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2048,10 +2232,10 @@
         <v>45784</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -2061,7 +2245,7 @@
         <v>35.04</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2086,61 +2270,61 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
         <v>0.02</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3">
         <v>8</v>
@@ -2148,49 +2332,49 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
